--- a/mathTransformed/HMPSTT_(2018-10-24)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-10-24)_51_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -500,6 +506,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Govt. High School Anandangar Hubli City</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -527,6 +538,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S IngalagiKundagol</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -554,6 +570,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S YarebudihalKundagol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -581,6 +602,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. High School BammigattiKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -606,7 +632,8 @@
           <t>ARATI R KULKARNI</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>K E B’s High School Malamaddi Dharwad</t>
         </is>
@@ -635,6 +662,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S HarlapuraKundagola</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -660,7 +692,8 @@
           <t>ASHOK KUMAR</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>U P School Dharwad</t>
         </is>
@@ -689,6 +722,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Krishana High School HallikeriNavalgund</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -716,6 +754,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S KoliwadHubi Rural</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -743,6 +786,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>S J R High School Noolvi Hubli</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -767,6 +815,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>H P S AladakattiKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Dharawad</t>
         </is>
       </c>
@@ -792,7 +845,8 @@
           <t>BHARATI R KOPPAD</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>G H S High School Narendra Dharwad</t>
         </is>
@@ -819,7 +873,8 @@
           <t>CHAVHAN M R</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Bharat High School Dharwad</t>
         </is>
@@ -848,6 +903,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S YaliwalKungdol</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -875,6 +935,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>K L E Society H F Kattimani High SchoolHubli City</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -902,6 +967,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Reshmi Almeelad Urdu High School Dayanand Colony Keshwapur Hubballi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -929,6 +999,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Adarsh Balika High School Ramnagar</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -956,6 +1031,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Smt Shantamma K Bhorashetti High School ShirakolNavalgund</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -981,7 +1061,8 @@
           <t>LUKMANHAKEEM S INAMDAZ</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Hazarat Nizamuddin High School Dharwad</t>
         </is>
@@ -1008,7 +1089,8 @@
           <t>MABEL D MUTHALGERI</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Basel Mission Boys High School Dharwad</t>
         </is>
@@ -1037,6 +1119,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S PendargalliHubli City</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1064,6 +1151,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>S G G High School GokulHubli</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1091,6 +1183,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S KusugalHubli</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1118,6 +1215,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>AM Govt. Urdu High School Kundgol</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1145,6 +1247,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S Kalaghatagi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1172,6 +1279,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Knupadanu High School Hubballi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1199,6 +1311,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Govt. Urdu High School Kalaghatagi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1226,6 +1343,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. Adarsh Vidyalaya DastikoppaKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1254,6 +1376,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Navalgund</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1281,6 +1408,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Model High School Navalagund</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1308,6 +1440,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S Navalur Dharwad City</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1333,7 +1470,8 @@
           <t>PRAKASHA K C</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Karnataka High School Dharwad</t>
         </is>
@@ -1362,6 +1500,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S Kusugal</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Hubli (Rural) Dharwad</t>
         </is>
       </c>
@@ -1389,6 +1532,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S HirenartiKundgol</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1416,6 +1564,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya Dastikoppa Kalagahatagi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1443,6 +1596,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Alm Govt. Urdu High School Sadashivnagar Old Hubli</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1468,7 +1626,8 @@
           <t>SHAIKH K M</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Anjuman High School Dharwad</t>
         </is>
@@ -1497,6 +1656,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Dr. Ambedkar High School Katnur Hubli</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1524,6 +1688,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Shivappanna Jigalur High School Old Hubli</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1549,7 +1718,8 @@
           <t>SHIVAPURMATH S A</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>New High School Dharwad</t>
         </is>
@@ -1578,6 +1748,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H S BagadageriKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1605,6 +1780,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S HireharakuniKundgol</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1632,6 +1812,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S HallyalHubli Rural</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1659,6 +1844,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Lamington Girls High School Hubli City</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1686,6 +1876,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>National Sports Resi High SchoolHubballi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1713,6 +1908,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Govt. High School NavanagarHubli Rural</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1740,6 +1940,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Basel Mission Girls High School Karwar RoadHubli City</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1767,6 +1972,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Govt. Girls High School Kalghatagi</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1794,6 +2004,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Gurukul High School Dharwad City</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1821,6 +2036,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S SurashettikoppaKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1847,6 +2067,11 @@
         </is>
       </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>G H S ChalamattiKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>Dharwad</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-10-24)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-10-24)_51_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
@@ -632,7 +631,6 @@
           <t>ARATI R KULKARNI</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>K E B’s High School Malamaddi Dharwad</t>
@@ -692,7 +690,6 @@
           <t>ASHOK KUMAR</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>U P School Dharwad</t>
@@ -820,7 +817,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dharawad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -845,7 +842,6 @@
           <t>BHARATI R KOPPAD</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>G H S High School Narendra Dharwad</t>
@@ -873,7 +869,6 @@
           <t>CHAVHAN M R</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>Bharat High School Dharwad</t>
@@ -1061,7 +1056,6 @@
           <t>LUKMANHAKEEM S INAMDAZ</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>Hazarat Nizamuddin High School Dharwad</t>
@@ -1089,7 +1083,6 @@
           <t>MABEL D MUTHALGERI</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>Basel Mission Boys High School Dharwad</t>
@@ -1470,7 +1463,6 @@
           <t>PRAKASHA K C</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>Karnataka High School Dharwad</t>
@@ -1626,7 +1618,6 @@
           <t>SHAIKH K M</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>Anjuman High School Dharwad</t>
@@ -1718,7 +1709,6 @@
           <t>SHIVAPURMATH S A</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>New High School Dharwad</t>

--- a/mathTransformed/HMPSTT_(2018-10-24)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-10-24)_51_4.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>U P School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>G H S High School Narendra Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bharat High School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hazarat Nizamuddin High School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Basel Mission Boys High School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Karnataka High School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hubli (Rural) Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Anjuman High School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>New High School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
